--- a/web/assests/content/document/hoa-don-thang-11.xlsx
+++ b/web/assests/content/document/hoa-don-thang-11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="78">
   <si>
     <t/>
   </si>
@@ -20,7 +20,7 @@
     <t>Hóa đơn tháng 11</t>
   </si>
   <si>
-    <t>ID hóa đơn 4. Email: ngledien10@outlook.com. Ngày thành toán: 01/11/2018</t>
+    <t>ID hóa đơn 4. Email: null. Ngày thành toán: 01/11/2018</t>
   </si>
   <si>
     <t>Bánh tráng cuốn thịt luộc</t>
@@ -35,7 +35,7 @@
     <t>2,300,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 17,300,000</t>
+    <t>Tổng tiền đơn hàng: 5,300,000</t>
   </si>
   <si>
     <t>ID hóa đơn 6. Email: truongtrang@gmail.com. Ngày thành toán: 02/11/2018</t>
@@ -65,19 +65,19 @@
     <t>Thịt bò xào măng</t>
   </si>
   <si>
-    <t>34,350,000</t>
-  </si>
-  <si>
-    <t>40,000,000</t>
+    <t>3,435,000</t>
+  </si>
+  <si>
+    <t>4,000,000</t>
   </si>
   <si>
     <t>Mì xào hải sản</t>
   </si>
   <si>
-    <t>45,000,000</t>
-  </si>
-  <si>
-    <t>Tổng tiền đơn hàng: 2,959,958,000</t>
+    <t>4,500,000</t>
+  </si>
+  <si>
+    <t>Tổng tiền đơn hàng: 14,081,000</t>
   </si>
   <si>
     <t>ID hóa đơn 7. Email: pgthinh@gmail.com. Ngày thành toán: 03/11/2018</t>
@@ -104,13 +104,13 @@
     <t>1,400,000</t>
   </si>
   <si>
-    <t>60,000,000</t>
+    <t>6,000,000</t>
   </si>
   <si>
     <t>5,000,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 1,149,600,000</t>
+    <t>Tổng tiền đơn hàng: 19,560,000</t>
   </si>
   <si>
     <t>ID hóa đơn 8. Email: pgthinh@gmail.com. Ngày thành toán: 04/11/2018</t>
@@ -128,7 +128,25 @@
     <t>1,500,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 51,700,000</t>
+    <t>6,900,000</t>
+  </si>
+  <si>
+    <t>Phở bò</t>
+  </si>
+  <si>
+    <t>4,560,000</t>
+  </si>
+  <si>
+    <t>Mực xào tỏi</t>
+  </si>
+  <si>
+    <t>Ếch xào măng</t>
+  </si>
+  <si>
+    <t>3,450,000</t>
+  </si>
+  <si>
+    <t>Tổng tiền đơn hàng: 25,210,000</t>
   </si>
   <si>
     <t>ID hóa đơn 9. Email: pgthinh@gmail.com. Ngày thành toán: 05/11/2018</t>
@@ -140,7 +158,7 @@
     <t>290,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 2,600,000</t>
+    <t>Tổng tiền đơn hàng: 410,000</t>
   </si>
   <si>
     <t>ID hóa đơn 10. Email: truongtrang@gmail.com. Ngày thành toán: 06/11/2018</t>
@@ -149,25 +167,19 @@
     <t>200,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 800,000</t>
+    <t>Tổng tiền đơn hàng: 200,000</t>
   </si>
   <si>
     <t>ID hóa đơn 2. Email: nttan@gmail.com. Ngày thành toán: 11/11/2018</t>
   </si>
   <si>
-    <t>10,000,000</t>
-  </si>
-  <si>
-    <t>30,000,000</t>
-  </si>
-  <si>
     <t>1,000,000</t>
   </si>
   <si>
     <t>600,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 589,900,000</t>
+    <t>Tổng tiền đơn hàng: 7,500,000</t>
   </si>
   <si>
     <t>ID hóa đơn 11. Email: truongtrang@gmail.com. Ngày thành toán: 23/11/2018</t>
@@ -176,7 +188,7 @@
     <t>1,300,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 13,000,000</t>
+    <t>Tổng tiền đơn hàng: 1,300,000</t>
   </si>
   <si>
     <t>ID hóa đơn 1. Email: truongtrang@gmail.com. Ngày thành toán: 24/11/2018</t>
@@ -188,7 +200,7 @@
     <t>670,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 7,210,000</t>
+    <t>Tổng tiền đơn hàng: 2,070,000</t>
   </si>
   <si>
     <t>ID hóa đơn 15. Email: ngdien1998@gmail.com. Ngày thành toán: 26/11/2018</t>
@@ -197,7 +209,7 @@
     <t>560,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 3,920,000</t>
+    <t>Tổng tiền đơn hàng: 560,000</t>
   </si>
   <si>
     <t>ID hóa đơn 14. Email: ngdien1998@gmail.com. Ngày thành toán: 27/11/2018</t>
@@ -206,7 +218,7 @@
     <t>450,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 1,800,000</t>
+    <t>Tổng tiền đơn hàng: 450,000</t>
   </si>
   <si>
     <t>ID hóa đơn 12. Email: ngdien1998@gmail.com. Ngày thành toán: 28/11/2018</t>
@@ -215,15 +227,12 @@
     <t>940,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 8,460,000</t>
+    <t>Tổng tiền đơn hàng: 940,000</t>
   </si>
   <si>
     <t>ID hóa đơn 13. Email: ngdien1998@gmail.com. Ngày thành toán: 29/11/2018</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 600,000</t>
-  </si>
-  <si>
     <t>ID hóa đơn 3. Email: truongtrang@gmail.com. Ngày thành toán: 30/11/2018</t>
   </si>
   <si>
@@ -236,7 +245,7 @@
     <t>570,000</t>
   </si>
   <si>
-    <t>Tổng tiền đơn hàng: 5,780,000</t>
+    <t>Tổng tiền đơn hàng: 2,050,000</t>
   </si>
 </sst>
 </file>
@@ -293,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -560,110 +569,110 @@
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s" s="1">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="35">
-      <c r="A35" t="s" s="1">
-        <v>39</v>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C36" t="n">
         <v>12.0</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s" s="1">
-        <v>42</v>
+      <c r="E37" t="s" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="1">
-        <v>43</v>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C41" t="n">
         <v>4.0</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C45" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>48</v>
+      <c r="E46" t="s" s="1">
+        <v>51</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>49</v>
+      <c r="A48" t="s" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="49">
@@ -671,39 +680,62 @@
         <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
         <v>5</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="n">
         <v>4.0</v>
       </c>
-      <c r="D50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="s" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="1">
-        <v>52</v>
+      <c r="D53" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="D54" t="s">
         <v>53</v>
@@ -711,199 +743,220 @@
     </row>
     <row r="55">
       <c r="E55" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
         <v>9</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C62" t="n">
         <v>5.0</v>
       </c>
-      <c r="D58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="s">
+      <c r="D62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
         <v>24</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C63" t="n">
         <v>3.0</v>
       </c>
-      <c r="D59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="s" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="1">
-        <v>59</v>
+      <c r="D63" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C72" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C80" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D81" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E81" t="s" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
         <v>73</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D83" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
         <v>28</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C88" t="n">
         <v>3.0</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D88" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s" s="1">
-        <v>74</v>
+    <row r="89">
+      <c r="E89" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
